--- a/medicine/Pharmacie/Échelle_de_performance/Échelle_de_performance.xlsx
+++ b/medicine/Pharmacie/Échelle_de_performance/Échelle_de_performance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_performance</t>
+          <t>Échelle_de_performance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une échelle de performance permet d'évaluer en  médecine, en oncologie comme dans d'autres spécialités, l'état de santé général et les activités du quotidien effectuées par des patients atteints de cancer. Cette évaluation peut par exemple déterminer si leur état permet l'administration d'une chimiothérapie, si les doses doivent être ajustées, elle permet également de mesurer l'intensité requise des soins palliatifs. Elle est également employée au cours des essais cliniques des chimiothérapies pour mesurer la qualité de vie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_performance</t>
+          <t>Échelle_de_performance</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,16 +523,12 @@
           <t>Systèmes d'évaluation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs systèmes d'évaluation sont disponibles, les plus couramment utilisés étant le score de Karnofsky et le score de Zubrod, particulièrement employé pour les publications de l'OMS. Concernant les enfants, c'est le score de Lansky qui est employé. Le système de l'Eastern Cooperative Oncology Group (ECOG) est également communément utilisé.
 D'autres évaluations peuvent être menées en parallèle, notamment selon l'Échelle d'évaluation globale du fonctionnement (EGF, en anglais : Global Assessment of Functioning, GAF), inscrite sur le 5e du Manuel diagnostique et statistique des troubles mentaux (DSM) de psychiatrie.
-Échelle de Karnofsky
-L'échelle de Karnofsky court de 100 à 0, où 100 représente la pleine santé et 0 la mort. Les praticiens cotent parfois par intervalles standardisés, de 10 en 10. Cette échelle d'évaluation porte le nom du Dr David A. Karnofsky, qui décrivit cette échelle en 1949 avec le Dr Joseph H. Burchenal[1]. L'objectif initial de son élaboration est de fournir aux thérapeutes une évaluation des capacités de leur patient de survivre à une chimiothérapie anticancéreuse[2] :
-Échelle de Zubrod ECOG/OMS
-L'échelle de l'Eastern Cooperative Oncology Group (ECOG), publiée par Oken et al. en 1982), également appelée « échelle (ou performance status) de l'OMS » ou « échelle de Zubrod », d'après  C. Gordon Zubrod, s'étend sur six valeurs, de 0 à 5, où 0 représente un bon état de santé et 5 le décès[3] : son avantage sur l'échelle de Karnofsky réside dans sa simplicité.
-Score de Lansky
-Concernant les enfants, qui peuvent éprouver des difficultés à exprimer leur qualité de vie, un système d'évaluation plus observationnelle est proposé par Lansky et al., validé en 1987[4] :
 </t>
         </is>
       </c>
@@ -531,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_performance</t>
+          <t>Échelle_de_performance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,12 +554,125 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Systèmes d'évaluation</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Échelle de Karnofsky</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de Karnofsky court de 100 à 0, où 100 représente la pleine santé et 0 la mort. Les praticiens cotent parfois par intervalles standardisés, de 10 en 10. Cette échelle d'évaluation porte le nom du Dr David A. Karnofsky, qui décrivit cette échelle en 1949 avec le Dr Joseph H. Burchenal. L'objectif initial de son élaboration est de fournir aux thérapeutes une évaluation des capacités de leur patient de survivre à une chimiothérapie anticancéreuse :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échelle_de_performance</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_performance</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systèmes d'évaluation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Échelle de Zubrod ECOG/OMS</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de l'Eastern Cooperative Oncology Group (ECOG), publiée par Oken et al. en 1982), également appelée « échelle (ou performance status) de l'OMS » ou « échelle de Zubrod », d'après  C. Gordon Zubrod, s'étend sur six valeurs, de 0 à 5, où 0 représente un bon état de santé et 5 le décès : son avantage sur l'échelle de Karnofsky réside dans sa simplicité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelle_de_performance</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_performance</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systèmes d'évaluation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Score de Lansky</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Concernant les enfants, qui peuvent éprouver des difficultés à exprimer leur qualité de vie, un système d'évaluation plus observationnelle est proposé par Lansky et al., validé en 1987 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échelle_de_performance</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_performance</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Comparaison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Une équivalence entre les index de Zubrod et de Karnofsky, particulièrement efficace chez les sujets en bonne santé, a été validée à une large échelle pour les patients atteints de cancer du poumon[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une équivalence entre les index de Zubrod et de Karnofsky, particulièrement efficace chez les sujets en bonne santé, a été validée à une large échelle pour les patients atteints de cancer du poumon :
 Zubrod 0-1 correspond à Karnofsky 80-100
 Zubrod 2 correspond à Karnofsky 60-70
 Zubrod 3-4 correspond à Karnofsky 10-50</t>
